--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_broca_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_broca_1_1.xlsx
@@ -1044,7 +1044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Broca"]  “Bro?”
+    <t xml:space="preserve">[name="Broca"]  'Bro?'
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guard Operator"]  Really, though, hear me out on this one. You really shouldn't talk like that. The first thing you said was “I don't trust Rhodes Island.” What kind of impression do you think that gives the rest of us?
+    <t xml:space="preserve">[name="Guard Operator"]  Really, though, hear me out on this one. You really shouldn't talk like that. The first thing you said was 'I don't trust Rhodes Island.' What kind of impression do you think that gives the rest of us?
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_broca_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_broca_1_1.xlsx
@@ -960,11 +960,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Broca"]  …I’ll give it a try.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guard Operator"]  You’re finally awake.
+    <t xml:space="preserve">[name="Broca"]  ...I'll give it a try.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  You're finally awake.
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guard Operator"]  I’m a little testy  , you see. I don't like it when I hear someone badmouthing Rhodes Island.
+    <t xml:space="preserve">[name="Guard Operator"]  I'm a little testy  , you see. I don't like it when I hear someone badmouthing Rhodes Island.
 </t>
   </si>
   <si>
@@ -1080,11 +1080,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  It’s because you're loyal  , Broca.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  All that loyalty, isn’t it natural you’d die for me?
+    <t xml:space="preserve">[name="???"]  It's because you're loyal  , Broca.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  All that loyalty, isn't it natural you'd die for me?
 </t>
   </si>
   <si>
@@ -1156,7 +1156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guard Operator"]  Man, that’s what I was talking about. You just got here, makes sense that you’d be a little iffy on the place.
+    <t xml:space="preserve">[name="Guard Operator"]  Man, that's what I was talking about. You just got here, makes sense that you'd be a little iffy on the place.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_broca_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_broca_1_1.xlsx
@@ -1524,7 +1524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="브로카"]  나를…… 버리는 건가? 지금까지 조직과 당신을 위해 얼마나 다해 왔는지 당신이 제일 잘 알잖아!
+    <t xml:space="preserve">[name="브로카"]  나를…… 버리는 건가? 지금까지 조직과 당신을 위해 얼마나 충성을 다해 왔는지 당신이 제일 잘 알잖아!
 </t>
   </si>
   <si>
